--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-784304.969163916</v>
+        <v>-787140.7430181532</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.396723986041656</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>49.18761930899353</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>128.5491332420886</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>113.6211493958216</v>
       </c>
       <c r="G5" t="n">
-        <v>12.38174861329103</v>
+        <v>394.4494945062781</v>
       </c>
       <c r="H5" t="n">
-        <v>309.560224524757</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>97.86446493206441</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.09996870867283</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.3092206463092</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>101.20978025574</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7806503182287</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.7131487144383</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>48.64466599219149</v>
+        <v>48.64466599219176</v>
       </c>
       <c r="S6" t="n">
-        <v>126.0109780678721</v>
+        <v>142.6536049262131</v>
       </c>
       <c r="T6" t="n">
         <v>193.8652785608813</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>153.0230435670304</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.5778138587779</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>58.41583709730409</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.5476786275662</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>72.55076174256048</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>160.2050090344563</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>38.10582080327962</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>90.0240091161496</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -1272,13 +1272,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>31.00074821930687</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>38.44547188632115</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>359.551749875465</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>136.5967098577642</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>86.72290329780353</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>46.52295781332658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>114.2821160880098</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>68.11883945937008</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.23631477519741</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>226.9652268912045</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H25" t="n">
-        <v>94.0595141466534</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.2536039910195</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>284.3724851400873</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.5006452705931</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>105.8965430419528</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>117.2645540643926</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652588</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808113</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3560,10 +3560,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545296</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158255</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158255</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158255</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158255</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158255</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330561</v>
@@ -4334,7 +4334,7 @@
         <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644757</v>
@@ -4352,28 +4352,28 @@
         <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>743.6410113056423</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652804</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652804</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652804</v>
+        <v>583.2614020227604</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652804</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487954</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323104</v>
+        <v>393.8416170062755</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323104</v>
+        <v>393.8416170062755</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330561</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330561</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330561</v>
+        <v>475.9702682325468</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330561</v>
+        <v>329.4357102594317</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330561</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330561</v>
@@ -4416,10 +4416,10 @@
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476354</v>
@@ -4434,25 +4434,25 @@
         <v>676.9378076264287</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099437</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099437</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="X3" t="n">
-        <v>357.6704132745007</v>
+        <v>525.6547321810251</v>
       </c>
       <c r="Y3" t="n">
-        <v>357.6704132745007</v>
+        <v>525.6547321810251</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330561</v>
@@ -4507,31 +4507,31 @@
         <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>732.6578895107723</v>
+        <v>1001.877323656308</v>
       </c>
       <c r="C5" t="n">
-        <v>363.6953725703605</v>
+        <v>1001.877323656308</v>
       </c>
       <c r="D5" t="n">
-        <v>363.6953725703605</v>
+        <v>643.611625049557</v>
       </c>
       <c r="E5" t="n">
-        <v>363.6953725703605</v>
+        <v>643.611625049557</v>
       </c>
       <c r="F5" t="n">
-        <v>356.7498718211571</v>
+        <v>528.8427872759999</v>
       </c>
       <c r="G5" t="n">
-        <v>344.243055040055</v>
+        <v>130.4089544413754</v>
       </c>
       <c r="H5" t="n">
-        <v>31.55595956050245</v>
+        <v>130.4089544413754</v>
       </c>
       <c r="I5" t="n">
-        <v>31.55595956050245</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="J5" t="n">
-        <v>97.75664306888859</v>
+        <v>97.75664306888757</v>
       </c>
       <c r="K5" t="n">
-        <v>247.7128251370704</v>
+        <v>247.7128251370684</v>
       </c>
       <c r="L5" t="n">
-        <v>470.6484908832567</v>
+        <v>470.6484908832534</v>
       </c>
       <c r="M5" t="n">
-        <v>750.376811574067</v>
+        <v>750.3768115740623</v>
       </c>
       <c r="N5" t="n">
-        <v>1039.245237319443</v>
+        <v>1039.245237319437</v>
       </c>
       <c r="O5" t="n">
-        <v>1298.68023915919</v>
+        <v>1298.680239159183</v>
       </c>
       <c r="P5" t="n">
-        <v>1485.601010129559</v>
+        <v>1485.601010129549</v>
       </c>
       <c r="Q5" t="n">
-        <v>1577.797978025122</v>
+        <v>1577.797978025113</v>
       </c>
       <c r="R5" t="n">
-        <v>1577.797978025122</v>
+        <v>1545.373767208271</v>
       </c>
       <c r="S5" t="n">
-        <v>1577.797978025122</v>
+        <v>1545.373767208271</v>
       </c>
       <c r="T5" t="n">
-        <v>1577.797978025122</v>
+        <v>1332.940210999878</v>
       </c>
       <c r="U5" t="n">
-        <v>1577.797978025122</v>
+        <v>1332.940210999878</v>
       </c>
       <c r="V5" t="n">
-        <v>1577.797978025122</v>
+        <v>1001.877323656308</v>
       </c>
       <c r="W5" t="n">
-        <v>1225.029322755008</v>
+        <v>1001.877323656308</v>
       </c>
       <c r="X5" t="n">
-        <v>1122.797221486584</v>
+        <v>1001.877323656308</v>
       </c>
       <c r="Y5" t="n">
-        <v>732.6578895107723</v>
+        <v>1001.877323656308</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>502.3986158856999</v>
+        <v>557.9558995115516</v>
       </c>
       <c r="C6" t="n">
-        <v>327.9455866045728</v>
+        <v>383.5028702304246</v>
       </c>
       <c r="D6" t="n">
-        <v>327.9455866045728</v>
+        <v>383.5028702304246</v>
       </c>
       <c r="E6" t="n">
-        <v>168.7081315991173</v>
+        <v>224.2654152249691</v>
       </c>
       <c r="F6" t="n">
-        <v>168.7081315991173</v>
+        <v>77.73085725185408</v>
       </c>
       <c r="G6" t="n">
-        <v>31.55595956050245</v>
+        <v>77.73085725185408</v>
       </c>
       <c r="H6" t="n">
-        <v>31.55595956050245</v>
+        <v>77.73085725185408</v>
       </c>
       <c r="I6" t="n">
-        <v>31.55595956050245</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="J6" t="n">
-        <v>52.16678618102026</v>
+        <v>52.16678618101966</v>
       </c>
       <c r="K6" t="n">
-        <v>165.5487964445737</v>
+        <v>165.5487964445724</v>
       </c>
       <c r="L6" t="n">
-        <v>364.327442608208</v>
+        <v>364.3274426082058</v>
       </c>
       <c r="M6" t="n">
-        <v>615.6496150704083</v>
+        <v>615.6496150704052</v>
       </c>
       <c r="N6" t="n">
-        <v>888.0321825209666</v>
+        <v>888.0321825209622</v>
       </c>
       <c r="O6" t="n">
-        <v>1114.989222285603</v>
+        <v>1114.989222285597</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.809189339516</v>
+        <v>1277.809189339509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1336.730829002207</v>
+        <v>1336.7308290022</v>
       </c>
       <c r="R6" t="n">
-        <v>1287.594802747468</v>
+        <v>1287.594802747461</v>
       </c>
       <c r="S6" t="n">
-        <v>1160.310986517294</v>
+        <v>1143.500252316943</v>
       </c>
       <c r="T6" t="n">
-        <v>964.4874728194343</v>
+        <v>947.6767386190827</v>
       </c>
       <c r="U6" t="n">
-        <v>964.4874728194343</v>
+        <v>793.1080077432944</v>
       </c>
       <c r="V6" t="n">
-        <v>964.4874728194343</v>
+        <v>557.9558995115516</v>
       </c>
       <c r="W6" t="n">
-        <v>710.2501160912327</v>
+        <v>557.9558995115516</v>
       </c>
       <c r="X6" t="n">
-        <v>502.3986158856999</v>
+        <v>557.9558995115516</v>
       </c>
       <c r="Y6" t="n">
-        <v>502.3986158856999</v>
+        <v>557.9558995115516</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.6547614380559</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="C7" t="n">
-        <v>183.6547614380559</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="D7" t="n">
-        <v>183.6547614380559</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="E7" t="n">
-        <v>183.6547614380559</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="F7" t="n">
-        <v>183.6547614380559</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="G7" t="n">
-        <v>183.6547614380559</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="H7" t="n">
-        <v>31.55595956050245</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="I7" t="n">
-        <v>31.55595956050245</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="J7" t="n">
-        <v>31.55595956050245</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="K7" t="n">
-        <v>54.53837128721099</v>
+        <v>54.53837128721038</v>
       </c>
       <c r="L7" t="n">
-        <v>113.8537434321903</v>
+        <v>113.8537434321892</v>
       </c>
       <c r="M7" t="n">
-        <v>179.6517697443925</v>
+        <v>179.6517697443907</v>
       </c>
       <c r="N7" t="n">
-        <v>251.7427919626585</v>
+        <v>251.7427919626562</v>
       </c>
       <c r="O7" t="n">
-        <v>298.0174303336749</v>
+        <v>298.0174303336721</v>
       </c>
       <c r="P7" t="n">
-        <v>318.5514065164057</v>
+        <v>318.5514065164025</v>
       </c>
       <c r="Q7" t="n">
-        <v>318.5514065164057</v>
+        <v>318.5514065164025</v>
       </c>
       <c r="R7" t="n">
-        <v>318.5514065164057</v>
+        <v>318.5514065164025</v>
       </c>
       <c r="S7" t="n">
-        <v>318.5514065164057</v>
+        <v>259.5455104585196</v>
       </c>
       <c r="T7" t="n">
-        <v>318.5514065164057</v>
+        <v>259.5455104585196</v>
       </c>
       <c r="U7" t="n">
-        <v>318.5514065164057</v>
+        <v>259.5455104585196</v>
       </c>
       <c r="V7" t="n">
-        <v>318.5514065164057</v>
+        <v>259.5455104585196</v>
       </c>
       <c r="W7" t="n">
-        <v>183.6547614380559</v>
+        <v>259.5455104585196</v>
       </c>
       <c r="X7" t="n">
-        <v>183.6547614380559</v>
+        <v>31.55595956050225</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.6547614380559</v>
+        <v>31.55595956050225</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.4944040267628</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="C8" t="n">
-        <v>755.4944040267628</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D8" t="n">
-        <v>755.4944040267628</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E8" t="n">
-        <v>369.7061514285186</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7606506793151</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1885.00223133681</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1885.00223133681</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1532.233576066696</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.233576066696</v>
+        <v>1111.162526029889</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.094244090885</v>
+        <v>949.3392845809428</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>904.8600091750928</v>
+        <v>267.4604631511913</v>
       </c>
       <c r="C9" t="n">
-        <v>730.4069798939659</v>
+        <v>267.4604631511913</v>
       </c>
       <c r="D9" t="n">
-        <v>581.4725702327146</v>
+        <v>118.52605348994</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1536.329044293639</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1308.227454426903</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1073.075346195161</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1073.075346195161</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>1073.075346195161</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>1073.075346195161</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>230.6430656672517</v>
+        <v>74.68308362830203</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934483</v>
+        <v>74.68308362830203</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934483</v>
+        <v>74.68308362830203</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4987,25 +4987,25 @@
         <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>298.2869409356784</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>74.68308362830203</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>74.68308362830203</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>74.68308362830203</v>
       </c>
       <c r="W10" t="n">
-        <v>458.6326165652691</v>
+        <v>74.68308362830203</v>
       </c>
       <c r="X10" t="n">
-        <v>230.6430656672517</v>
+        <v>74.68308362830203</v>
       </c>
       <c r="Y10" t="n">
-        <v>230.6430656672517</v>
+        <v>74.68308362830203</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555043</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007881</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409637</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>742.4225746200293</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128747</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070874</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469742</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126171</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856057</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594977</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619165</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>93.85065580060308</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>241.498637552449</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>241.498637552449</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>732.2309703962003</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>1324.249324648328</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.31563634397</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2927.056956059462</v>
+        <v>1098.385284034031</v>
       </c>
       <c r="C13" t="n">
-        <v>2758.120773131555</v>
+        <v>929.4491011061237</v>
       </c>
       <c r="D13" t="n">
-        <v>2620.144298527753</v>
+        <v>779.332461693788</v>
       </c>
       <c r="E13" t="n">
-        <v>2472.231204945359</v>
+        <v>631.4193681113949</v>
       </c>
       <c r="F13" t="n">
-        <v>2472.231204945359</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G13" t="n">
-        <v>2305.017010119938</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H13" t="n">
-        <v>2305.017010119938</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I13" t="n">
-        <v>2305.017010119938</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>2383.999133009492</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>2643.627859980056</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>3031.38967806319</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>3450.619270107649</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>3865.315135899356</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>4232.337592914386</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>4522.86802775059</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>4640.581161304025</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>4572.721816262527</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>4389.551626001457</v>
+        <v>2272.917537148665</v>
       </c>
       <c r="T13" t="n">
-        <v>4169.87284371584</v>
+        <v>2272.917537148665</v>
       </c>
       <c r="U13" t="n">
-        <v>3880.796630030567</v>
+        <v>2272.917537148665</v>
       </c>
       <c r="V13" t="n">
-        <v>3626.11214182468</v>
+        <v>2018.233048942778</v>
       </c>
       <c r="W13" t="n">
-        <v>3336.694971787719</v>
+        <v>1728.815878905818</v>
       </c>
       <c r="X13" t="n">
-        <v>3108.705420889702</v>
+        <v>1500.8263280078</v>
       </c>
       <c r="Y13" t="n">
-        <v>3108.705420889702</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5279,10 +5279,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235159</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.5067842581</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602298</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1708.43867092217</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5495,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.73118040114</v>
+        <v>695.5020655703141</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>526.5658826424072</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>376.4492432300715</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>376.4492432300715</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300715</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>209.2531439449514</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V19" t="n">
-        <v>1619.578945309888</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W19" t="n">
-        <v>1330.161775272927</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X19" t="n">
-        <v>1102.17222437491</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y19" t="n">
-        <v>881.3796452313798</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="20">
@@ -5744,43 +5744,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,16 +5823,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1748.203275569898</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1051.964939354869</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>883.0287564269624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>732.9121170146267</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>584.9990234322336</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>438.1090759343232</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>270.9129766492031</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6184,13 +6184,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.660164395751</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.584937739949</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.900449534062</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.483279497101</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.483279497101</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.6907003535711</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>988.1395539230172</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>819.2033709951103</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D34" t="n">
-        <v>669.0867315827745</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E34" t="n">
-        <v>521.1736380003814</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.987318831765</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.570148794804</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.580597896787</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1169.788018753257</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,7 +7208,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7263,16 +7263,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150025</v>
@@ -7318,7 +7318,7 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7351,13 +7351,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7576,13 +7576,13 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971605</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>20.91020223531214</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>247.9252960539634</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>70.68499503062208</v>
       </c>
       <c r="S2" t="n">
-        <v>55.47546462219544</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121489</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,16 +22720,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716257</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.29152613729264</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.29152613728939</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>12.01876316044817</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>94.61558506065543</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016414</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>205.6146855105014</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.01259675821413</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>184.0188038644579</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>59.21924749803964</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H25" t="n">
-        <v>46.23519869957049</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1518463362687328</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.150513196503653</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.33133491134419</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>53.02951788468647</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>61.35027805667502</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>28.1564939585386</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.023892744153272e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>208611.1685410618</v>
+        <v>208611.1685410617</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592851</v>
@@ -26326,13 +26326,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
@@ -26344,10 +26344,10 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26366,16 +26366,16 @@
         <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>229052.9846381957</v>
+        <v>229052.984638193</v>
       </c>
       <c r="D3" t="n">
-        <v>154732.1099795059</v>
+        <v>154732.1099795084</v>
       </c>
       <c r="E3" t="n">
-        <v>589710.8045858953</v>
+        <v>589710.8045858956</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504144</v>
+        <v>11452.26311504113</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854466</v>
       </c>
       <c r="K3" t="n">
-        <v>53255.59218427101</v>
+        <v>53255.59218427032</v>
       </c>
       <c r="L3" t="n">
-        <v>37372.79949869231</v>
+        <v>37372.79949869299</v>
       </c>
       <c r="M3" t="n">
-        <v>173443.349248047</v>
+        <v>173443.3492480471</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704841</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206807.5769261786</v>
+        <v>206807.5769261784</v>
       </c>
       <c r="C4" t="n">
-        <v>217644.1106371138</v>
+        <v>217644.1106371145</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26427,37 +26427,37 @@
         <v>16040.05135066662</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
+        <v>16046.58397189199</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189202</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498546</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498546</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498543</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>73449.92183345655</v>
+        <v>73449.92183345635</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646539.111317576</v>
+        <v>-646853.2893377278</v>
       </c>
       <c r="C6" t="n">
-        <v>-273834.4861494809</v>
+        <v>-273834.4861494788</v>
       </c>
       <c r="D6" t="n">
-        <v>-167821.6509649908</v>
+        <v>-167821.6509649933</v>
       </c>
       <c r="E6" t="n">
-        <v>-465089.0529589911</v>
+        <v>-465134.9579545571</v>
       </c>
       <c r="F6" t="n">
-        <v>113522.6029961613</v>
+        <v>113487.8650707258</v>
       </c>
       <c r="G6" t="n">
-        <v>124974.8661112028</v>
+        <v>124940.1281857669</v>
       </c>
       <c r="H6" t="n">
-        <v>124974.8661112027</v>
+        <v>124940.128185767</v>
       </c>
       <c r="I6" t="n">
-        <v>124974.8661112029</v>
+        <v>124940.1281857671</v>
       </c>
       <c r="J6" t="n">
-        <v>75909.92138265815</v>
+        <v>75875.18345722236</v>
       </c>
       <c r="K6" t="n">
-        <v>71719.27392693168</v>
+        <v>71684.53600149669</v>
       </c>
       <c r="L6" t="n">
-        <v>87602.06661251043</v>
+        <v>87567.32868707404</v>
       </c>
       <c r="M6" t="n">
-        <v>-54332.3773776629</v>
+        <v>-54332.37737766314</v>
       </c>
       <c r="N6" t="n">
-        <v>116033.9545146793</v>
+        <v>116033.9545146792</v>
       </c>
       <c r="O6" t="n">
         <v>119110.9718703841</v>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.233813810394909e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.233813810394909e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.233813810394909e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>726.5959893337014</v>
+        <v>726.5959893336993</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26790,13 +26790,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4494945062806</v>
+        <v>394.4494945062781</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.233813810394909e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8700428277348e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>178.1260484207966</v>
+        <v>178.1260484207945</v>
       </c>
       <c r="D3" t="n">
-        <v>127.1146752039828</v>
+        <v>127.1146752039848</v>
       </c>
       <c r="E3" t="n">
-        <v>504.3303841787015</v>
+        <v>504.3303841787017</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>206.9239073399605</v>
+        <v>206.923907339958</v>
       </c>
       <c r="D4" t="n">
-        <v>147.6654622198827</v>
+        <v>147.6654622198852</v>
       </c>
       <c r="E4" t="n">
-        <v>618.0303335998429</v>
+        <v>618.0303335998436</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>206.9239073399607</v>
+        <v>206.923907339958</v>
       </c>
       <c r="L4" t="n">
-        <v>147.6654622198827</v>
+        <v>147.6654622198852</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998429</v>
+        <v>618.0303335998434</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.233813810394909e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.8700428277348e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>206.9239073399605</v>
+        <v>206.923907339958</v>
       </c>
       <c r="L4" t="n">
-        <v>147.6654622198827</v>
+        <v>147.6654622198852</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998429</v>
+        <v>618.0303335998436</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>173.4945806706295</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.3003485678577</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>108.4574611464074</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27515,13 +27515,13 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310518</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>77.22385196138887</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,19 +27549,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482795</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>293.2548963458898</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>17.93225410701289</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.5602245247571</v>
       </c>
       <c r="I5" t="n">
-        <v>97.8644649320641</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.09996870867232</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>142.4580349854746</v>
+        <v>142.4580349854748</v>
       </c>
       <c r="T5" t="n">
-        <v>210.3092206463091</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.111973795689</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>268.521320422729</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7806503182287</v>
       </c>
       <c r="H6" t="n">
-        <v>97.14144075996052</v>
+        <v>97.14144075996056</v>
       </c>
       <c r="I6" t="n">
-        <v>45.71314871443814</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>16.64262685834092</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.838561893805</v>
+        <v>72.81551832677451</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27789,13 +27789,13 @@
         <v>166.6807242957259</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.577813858778</v>
       </c>
       <c r="I7" t="n">
-        <v>116.0475317679815</v>
+        <v>116.0475317679816</v>
       </c>
       <c r="J7" t="n">
-        <v>34.36038850417981</v>
+        <v>34.36038850418007</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.78900724005695</v>
+        <v>41.78900724005724</v>
       </c>
       <c r="R7" t="n">
-        <v>118.3795591928337</v>
+        <v>118.3795591928338</v>
       </c>
       <c r="S7" t="n">
-        <v>201.1824257164361</v>
+        <v>142.7665886191321</v>
       </c>
       <c r="T7" t="n">
         <v>222.3472268875136</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>152.9753197090248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>178.5203309515554</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>226.0329296215973</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.5392596521213</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>102.7392091946142</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>115.4332144272623</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>248.0775264502699</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,19 +28330,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28527,13 +28527,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-5.455427557974652e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.248318477546135e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.248318477546135e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="38">
@@ -30280,10 +30280,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.920988901844023</v>
+        <v>2.920988901844015</v>
       </c>
       <c r="H5" t="n">
-        <v>29.91457759101011</v>
+        <v>29.91457759101003</v>
       </c>
       <c r="I5" t="n">
-        <v>112.6114246383418</v>
+        <v>112.6114246383415</v>
       </c>
       <c r="J5" t="n">
-        <v>247.9152818078844</v>
+        <v>247.9152818078837</v>
       </c>
       <c r="K5" t="n">
-        <v>371.560742022942</v>
+        <v>371.5607420229409</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9539561277511</v>
+        <v>460.9539561277498</v>
       </c>
       <c r="M5" t="n">
-        <v>512.9000925109198</v>
+        <v>512.9000925109183</v>
       </c>
       <c r="N5" t="n">
-        <v>521.1993522282842</v>
+        <v>521.1993522282827</v>
       </c>
       <c r="O5" t="n">
-        <v>492.1537688355726</v>
+        <v>492.1537688355712</v>
       </c>
       <c r="P5" t="n">
-        <v>420.0418553212982</v>
+        <v>420.041855321297</v>
       </c>
       <c r="Q5" t="n">
-        <v>315.433940274009</v>
+        <v>315.4339402740081</v>
       </c>
       <c r="R5" t="n">
-        <v>183.4855691054598</v>
+        <v>183.4855691054593</v>
       </c>
       <c r="S5" t="n">
-        <v>66.56203460077074</v>
+        <v>66.56203460077056</v>
       </c>
       <c r="T5" t="n">
-        <v>12.78662891782222</v>
+        <v>12.78662891782218</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2336791121475218</v>
+        <v>0.2336791121475212</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.562866844981924</v>
+        <v>1.562866844981919</v>
       </c>
       <c r="H6" t="n">
-        <v>15.09400347653595</v>
+        <v>15.09400347653591</v>
       </c>
       <c r="I6" t="n">
-        <v>53.80923128556186</v>
+        <v>53.8092312855617</v>
       </c>
       <c r="J6" t="n">
-        <v>147.6566434550685</v>
+        <v>147.6566434550681</v>
       </c>
       <c r="K6" t="n">
-        <v>252.3687220688574</v>
+        <v>252.3687220688567</v>
       </c>
       <c r="L6" t="n">
-        <v>339.3408910562725</v>
+        <v>339.3408910562716</v>
       </c>
       <c r="M6" t="n">
-        <v>395.9948141868672</v>
+        <v>395.9948141868661</v>
       </c>
       <c r="N6" t="n">
-        <v>406.4756185990487</v>
+        <v>406.4756185990476</v>
       </c>
       <c r="O6" t="n">
-        <v>371.8457795602387</v>
+        <v>371.8457795602376</v>
       </c>
       <c r="P6" t="n">
-        <v>298.4390206001009</v>
+        <v>298.4390206001</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.4985818261137</v>
+        <v>199.4985818261131</v>
       </c>
       <c r="R6" t="n">
-        <v>97.03483797177246</v>
+        <v>97.03483797177219</v>
       </c>
       <c r="S6" t="n">
-        <v>29.02956617762475</v>
+        <v>29.02956617762467</v>
       </c>
       <c r="T6" t="n">
-        <v>6.299450133940296</v>
+        <v>6.299450133940278</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1028201871698635</v>
+        <v>0.1028201871698632</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.310255062732904</v>
+        <v>1.3102550627329</v>
       </c>
       <c r="H7" t="n">
-        <v>11.64935864866164</v>
+        <v>11.64935864866161</v>
       </c>
       <c r="I7" t="n">
-        <v>39.40294315927679</v>
+        <v>39.40294315927669</v>
       </c>
       <c r="J7" t="n">
-        <v>92.6350329352163</v>
+        <v>92.63503293521605</v>
       </c>
       <c r="K7" t="n">
-        <v>152.227815470241</v>
+        <v>152.2278154702406</v>
       </c>
       <c r="L7" t="n">
-        <v>194.7991935993992</v>
+        <v>194.7991935993987</v>
       </c>
       <c r="M7" t="n">
-        <v>205.3884367882133</v>
+        <v>205.3884367882127</v>
       </c>
       <c r="N7" t="n">
-        <v>200.5047588271181</v>
+        <v>200.5047588271175</v>
       </c>
       <c r="O7" t="n">
-        <v>185.1985974124654</v>
+        <v>185.1985974124649</v>
       </c>
       <c r="P7" t="n">
-        <v>158.4693941327141</v>
+        <v>158.4693941327136</v>
       </c>
       <c r="Q7" t="n">
-        <v>109.7159943893889</v>
+        <v>109.7159943893886</v>
       </c>
       <c r="R7" t="n">
-        <v>58.91383218433583</v>
+        <v>58.91383218433567</v>
       </c>
       <c r="S7" t="n">
-        <v>22.83417232053614</v>
+        <v>22.83417232053608</v>
       </c>
       <c r="T7" t="n">
-        <v>5.598362540767861</v>
+        <v>5.598362540767845</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07146845796724939</v>
+        <v>0.07146845796724918</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>396.0551582405475</v>
+        <v>382.7677754386387</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>191.332301678856</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>191.332301678856</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>151.9914336104081</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34211,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>66.86937728119813</v>
+        <v>66.86937728119742</v>
       </c>
       <c r="K5" t="n">
-        <v>151.4708909779615</v>
+        <v>151.4708909779604</v>
       </c>
       <c r="L5" t="n">
-        <v>225.1875411577639</v>
+        <v>225.1875411577626</v>
       </c>
       <c r="M5" t="n">
-        <v>282.5538592836471</v>
+        <v>282.5538592836456</v>
       </c>
       <c r="N5" t="n">
-        <v>291.7862886316933</v>
+        <v>291.7862886316918</v>
       </c>
       <c r="O5" t="n">
-        <v>262.0555574138858</v>
+        <v>262.0555574138845</v>
       </c>
       <c r="P5" t="n">
-        <v>188.8088595660287</v>
+        <v>188.8088595660275</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.12825039955951</v>
+        <v>93.12825039955865</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>20.81901678840183</v>
+        <v>20.81901678840143</v>
       </c>
       <c r="K6" t="n">
-        <v>114.5272830944984</v>
+        <v>114.5272830944977</v>
       </c>
       <c r="L6" t="n">
-        <v>200.7865112763984</v>
+        <v>200.7865112763974</v>
       </c>
       <c r="M6" t="n">
-        <v>253.8607802648489</v>
+        <v>253.8607802648477</v>
       </c>
       <c r="N6" t="n">
-        <v>275.1339065157154</v>
+        <v>275.1339065157142</v>
       </c>
       <c r="O6" t="n">
-        <v>229.2495351157942</v>
+        <v>229.2495351157932</v>
       </c>
       <c r="P6" t="n">
-        <v>164.4646131857706</v>
+        <v>164.4646131857698</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.51680774009213</v>
+        <v>59.51680774009156</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>23.2145572997056</v>
+        <v>23.21455729970518</v>
       </c>
       <c r="L7" t="n">
-        <v>59.91451731816093</v>
+        <v>59.91451731816039</v>
       </c>
       <c r="M7" t="n">
-        <v>66.46265284060823</v>
+        <v>66.46265284060763</v>
       </c>
       <c r="N7" t="n">
-        <v>72.81921436188489</v>
+        <v>72.81921436188432</v>
       </c>
       <c r="O7" t="n">
-        <v>46.74205896062264</v>
+        <v>46.74205896062213</v>
       </c>
       <c r="P7" t="n">
-        <v>20.74139008356644</v>
+        <v>20.74139008356602</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>264.7134461572142</v>
+        <v>251.4260633553054</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998929</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066282</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>59.99058959552271</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552271</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>20.64972152707474</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
